--- a/Salary_Data_working.xlsx
+++ b/Salary_Data_working.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,25 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{913BB0BA-0169-4EFD-98A9-9559F3CFDD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6418373-3D52-43BF-997A-C6E7813385AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salary_Data (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Salary_Data (1)'!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Salary_Data (1)'!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Salary_Data (1)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Salary_Data (1)'!$C$2:$C$31</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>y=mx+c</t>
   </si>
@@ -76,19 +82,40 @@
     <t>c=y'-mx'</t>
   </si>
   <si>
-    <t>learnt</t>
+    <t>y_pred</t>
   </si>
   <si>
-    <t>test</t>
+    <t>MAE</t>
   </si>
   <si>
-    <t>compare</t>
+    <t>mae=|y_pred-Y|/n</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>mse=(y_pred-y)^2/n</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>r2 = 1-(ssr/sse)</t>
+  </si>
+  <si>
+    <t>R2_score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1716,19 +1743,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Subtitle 2">
@@ -2072,7 +2099,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Subtitle 2">
@@ -2320,16 +2347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2653,11 +2680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2666,10 +2693,13 @@
     <col min="2" max="2" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="8.7265625" style="1"/>
     <col min="6" max="6" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.81640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -2688,9 +2718,29 @@
       <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -2713,9 +2763,36 @@
         <f>D2*D2</f>
         <v>17.752177777777774</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <f>($O$11*B2)+$O$12</f>
+        <v>36187.158752269272</v>
+      </c>
+      <c r="I2" s="2">
+        <f>ABS(C2-H2)</f>
+        <v>3155.8412477307284</v>
+      </c>
+      <c r="J2" s="2">
+        <f>(H2-C2)^2</f>
+        <v>9959333.98087864</v>
+      </c>
+      <c r="K2" s="2">
+        <f>(C2-H2)^2</f>
+        <v>9959333.98087864</v>
+      </c>
+      <c r="L2" s="2">
+        <f>E2*E2</f>
+        <v>1343955600</v>
+      </c>
+      <c r="M2" s="3">
+        <f>1-(K32/L32)</f>
+        <v>0.95695666414350855</v>
+      </c>
+      <c r="N2" s="3">
+        <f>SQRT(J32)</f>
+        <v>5592.0436087606622</v>
+      </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>1.3</v>
       </c>
@@ -2723,27 +2800,49 @@
         <v>46205</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D33" si="0">B3-$B$32</f>
+        <f t="shared" ref="D3:D31" si="0">B3-$B$32</f>
         <v>-4.0133333333333336</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E33" si="1">C3-$C$32</f>
+        <f t="shared" ref="E3:E31" si="1">C3-$C$32</f>
         <v>-29798</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F33" si="2">D3*E3</f>
+        <f t="shared" ref="F3:F31" si="2">D3*E3</f>
         <v>119589.30666666667</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G33" si="3">D3*D3</f>
+        <f t="shared" ref="G3:G31" si="3">D3*D3</f>
         <v>16.106844444444448</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="L3" s="1" t="s">
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H31" si="4">($O$11*B3)+$O$12</f>
+        <v>38077.151216560291</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I31" si="5">ABS(C3-H3)</f>
+        <v>8127.8487834397092</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J31" si="6">(H3-C3)^2</f>
+        <v>66061925.846462362</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K31" si="7">(C3-H3)^2</f>
+        <v>66061925.846462362</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L31" si="8">E3*E3</f>
+        <v>887920804</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>1.5</v>
       </c>
@@ -2766,12 +2865,34 @@
         <f t="shared" si="3"/>
         <v>14.541511111111111</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="L4" s="1" t="s">
+      <c r="H4" s="2">
+        <f t="shared" si="4"/>
+        <v>39967.143680851303</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="5"/>
+        <v>2236.1436808513026</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="6"/>
+        <v>5000338.5614112122</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="7"/>
+        <v>5000338.5614112122</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="8"/>
+        <v>1464745984</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2794,12 +2915,34 @@
         <f t="shared" si="3"/>
         <v>10.978177777777779</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="L5" s="1" t="s">
+      <c r="H5" s="2">
+        <f t="shared" si="4"/>
+        <v>44692.124841578843</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="5"/>
+        <v>1167.1248415788432</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="6"/>
+        <v>1362180.3958304399</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="7"/>
+        <v>1362180.3958304399</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="8"/>
+        <v>1054820484</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2822,9 +2965,28 @@
         <f t="shared" si="3"/>
         <v>9.6928444444444448</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>46582.117305869862</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="5"/>
+        <v>6691.1173058698623</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="6"/>
+        <v>44771050.800911166</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="7"/>
+        <v>44771050.800911166</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="8"/>
+        <v>1304076544</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>2.9</v>
       </c>
@@ -2847,9 +3009,28 @@
         <f t="shared" si="3"/>
         <v>5.8241777777777788</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>53197.090930888415</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>3444.9090691115853</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="6"/>
+        <v>11867398.494447248</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="7"/>
+        <v>11867398.494447248</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="8"/>
+        <v>374848321</v>
+      </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -2872,9 +3053,28 @@
         <f t="shared" si="3"/>
         <v>5.3515111111111118</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>54142.087163033924</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="5"/>
+        <v>6007.9128369660757</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="6"/>
+        <v>36095016.656581759</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="7"/>
+        <v>36095016.656581759</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="8"/>
+        <v>251317609</v>
+      </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>3.2</v>
       </c>
@@ -2897,9 +3097,28 @@
         <f t="shared" si="3"/>
         <v>4.4661777777777774</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>56032.079627324936</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="5"/>
+        <v>1587.0796273249362</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="6"/>
+        <v>2518821.7434698581</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="7"/>
+        <v>2518821.7434698581</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="8"/>
+        <v>464747364</v>
+      </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>3.2</v>
       </c>
@@ -2922,9 +3141,28 @@
         <f t="shared" si="3"/>
         <v>4.4661777777777774</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>56032.079627324936</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="5"/>
+        <v>8412.9203726750638</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="6"/>
+        <v>70777229.196971133</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="7"/>
+        <v>70777229.196971133</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="8"/>
+        <v>133587364</v>
+      </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>3.7</v>
       </c>
@@ -2947,19 +3185,38 @@
         <f t="shared" si="3"/>
         <v>2.6028444444444441</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="K11" s="1" t="s">
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>60757.060788052477</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="5"/>
+        <v>3568.0607880524767</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="6"/>
+        <v>12731057.787237661</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="7"/>
+        <v>12731057.787237661</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="8"/>
+        <v>353966596</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <f>F32/G32</f>
         <v>9449.9623214550775</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <v>3.9</v>
       </c>
@@ -2982,19 +3239,38 @@
         <f t="shared" si="3"/>
         <v>1.9975111111111117</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="K12" s="1" t="s">
+      <c r="H12" s="2">
+        <f t="shared" si="4"/>
+        <v>62647.053252343489</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="5"/>
+        <v>570.94674765651143</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="6"/>
+        <v>325980.18865954812</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="7"/>
+        <v>325980.18865954812</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="8"/>
+        <v>163456225</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="1">
-        <f>C32-(M11*B32)</f>
+      <c r="O12" s="1">
+        <f>C32-(O11*B32)</f>
         <v>25792.200198668688</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -3017,9 +3293,28 @@
         <f t="shared" si="3"/>
         <v>1.7248444444444448</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f t="shared" si="4"/>
+        <v>63592.049484488998</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="5"/>
+        <v>7798.0494844889981</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="6"/>
+        <v>60809575.762539126</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="7"/>
+        <v>60809575.762539126</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="8"/>
+        <v>408403681</v>
+      </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <v>4</v>
       </c>
@@ -3042,9 +3337,28 @@
         <f t="shared" si="3"/>
         <v>1.7248444444444448</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f t="shared" si="4"/>
+        <v>63592.049484488998</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="5"/>
+        <v>6635.0494844889981</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="6"/>
+        <v>44023881.661617719</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="7"/>
+        <v>44023881.661617719</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="8"/>
+        <v>362750116</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <v>4.0999999999999996</v>
       </c>
@@ -3067,16 +3381,35 @@
         <f t="shared" si="3"/>
         <v>1.4721777777777789</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="L15" s="1">
-        <v>20</v>
-      </c>
-      <c r="M15" s="1">
-        <f>(M11*L15)+M12</f>
-        <v>214791.44662777026</v>
+      <c r="H15" s="2">
+        <f t="shared" si="4"/>
+        <v>64537.0457166345</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="5"/>
+        <v>7456.0457166345004</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="6"/>
+        <v>55592617.728543684</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="7"/>
+        <v>55592617.728543684</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="8"/>
+        <v>358042084</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7</v>
+      </c>
+      <c r="O15" s="1">
+        <f>(O11*N15)+O12</f>
+        <v>91941.93644885422</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>4.5</v>
       </c>
@@ -3099,9 +3432,28 @@
         <f t="shared" si="3"/>
         <v>0.66151111111111127</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>68317.030645216539</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="5"/>
+        <v>7206.0306452165387</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="6"/>
+        <v>51926877.659799881</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="7"/>
+        <v>51926877.659799881</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="8"/>
+        <v>221771664</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -3124,9 +3476,28 @@
         <f t="shared" si="3"/>
         <v>0.17084444444444427</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f t="shared" si="4"/>
+        <v>72097.015573798562</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="5"/>
+        <v>4159.0155737985624</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="6"/>
+        <v>17297410.543098986</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="7"/>
+        <v>17297410.543098986</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="8"/>
+        <v>65044225</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -3149,9 +3520,28 @@
         <f t="shared" si="3"/>
         <v>4.5511111111111321E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f t="shared" si="4"/>
+        <v>73987.008038089582</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="5"/>
+        <v>7958.0080380895815</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="6"/>
+        <v>63329891.934298389</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="7"/>
+        <v>63329891.934298389</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="8"/>
+        <v>99480676</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <v>5.3</v>
       </c>
@@ -3174,9 +3564,28 @@
         <f t="shared" si="3"/>
         <v>1.77777777777786E-4</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f t="shared" si="4"/>
+        <v>75877.000502380601</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="5"/>
+        <v>7210.9994976193993</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="6"/>
+        <v>51998513.75466723</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="7"/>
+        <v>51998513.75466723</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="8"/>
+        <v>50197225</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>5.9</v>
       </c>
@@ -3199,9 +3608,28 @@
         <f t="shared" si="3"/>
         <v>0.34417777777777803</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f t="shared" si="4"/>
+        <v>81546.977895253658</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="5"/>
+        <v>183.97789525365806</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="6"/>
+        <v>33847.865941965974</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="7"/>
+        <v>33847.865941965974</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="8"/>
+        <v>28729600</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <v>6</v>
       </c>
@@ -3224,9 +3652,28 @@
         <f t="shared" si="3"/>
         <v>0.47151111111111094</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f t="shared" si="4"/>
+        <v>82491.974127399153</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="5"/>
+        <v>11448.025872600847</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="6"/>
+        <v>131057296.37973838</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="7"/>
+        <v>131057296.37973838</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="8"/>
+        <v>321735969</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>6.8</v>
       </c>
@@ -3249,9 +3696,28 @@
         <f t="shared" si="3"/>
         <v>2.2101777777777767</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f t="shared" si="4"/>
+        <v>90051.943984563215</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="5"/>
+        <v>1686.0560154367849</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="6"/>
+        <v>2842784.8871905678</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="7"/>
+        <v>2842784.8871905678</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="8"/>
+        <v>247590225</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <v>7.1</v>
       </c>
@@ -3274,9 +3740,28 @@
         <f t="shared" si="3"/>
         <v>3.192177777777776</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f t="shared" si="4"/>
+        <v>92886.932680999744</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="5"/>
+        <v>5386.0673190002562</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="6"/>
+        <v>29009721.164802607</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="7"/>
+        <v>29009721.164802607</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="8"/>
+        <v>495952900</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <v>7.9</v>
       </c>
@@ -3299,9 +3784,28 @@
         <f t="shared" si="3"/>
         <v>6.6908444444444459</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f t="shared" si="4"/>
+        <v>100446.90253816379</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="5"/>
+        <v>855.09746183620882</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="6"/>
+        <v>731191.66923872661</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="7"/>
+        <v>731191.66923872661</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="8"/>
+        <v>640039401</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <v>8.1999999999999993</v>
       </c>
@@ -3324,9 +3828,28 @@
         <f t="shared" si="3"/>
         <v>8.3328444444444401</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f t="shared" si="4"/>
+        <v>103281.89123460031</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="5"/>
+        <v>10530.108765399695</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="6"/>
+        <v>110883190.61114748</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="7"/>
+        <v>110883190.61114748</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="8"/>
+        <v>1429520481</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
         <v>8.6999999999999993</v>
       </c>
@@ -3349,9 +3872,28 @@
         <f t="shared" si="3"/>
         <v>11.469511111111105</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f t="shared" si="4"/>
+        <v>108006.87239532787</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="5"/>
+        <v>1424.1276046721323</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="6"/>
+        <v>2028139.4343891852</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="7"/>
+        <v>2028139.4343891852</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="8"/>
+        <v>1117431184</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>9</v>
       </c>
@@ -3374,9 +3916,28 @@
         <f t="shared" si="3"/>
         <v>13.59151111111111</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f t="shared" si="4"/>
+        <v>110841.86109176438</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="5"/>
+        <v>5259.8610917643819</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="6"/>
+        <v>27666138.704656795</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="7"/>
+        <v>27666138.704656795</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="8"/>
+        <v>874917241</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
         <v>9.5</v>
       </c>
@@ -3399,9 +3960,28 @@
         <f t="shared" si="3"/>
         <v>17.528177777777778</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f t="shared" si="4"/>
+        <v>115566.84225249192</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="5"/>
+        <v>1402.1577475080849</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="6"/>
+        <v>1966046.3488969463</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="7"/>
+        <v>1966046.3488969463</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="8"/>
+        <v>1678213156</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
         <v>9.6</v>
       </c>
@@ -3424,9 +4004,28 @@
         <f t="shared" si="3"/>
         <v>18.375511111111106</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f t="shared" si="4"/>
+        <v>116511.83848463744</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="5"/>
+        <v>3876.8384846374393</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="6"/>
+        <v>15029876.635965915</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="7"/>
+        <v>15029876.635965915</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="8"/>
+        <v>1341903424</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
         <v>10.3</v>
       </c>
@@ -3449,9 +4048,28 @@
         <f t="shared" si="3"/>
         <v>24.86684444444445</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f t="shared" si="4"/>
+        <v>123126.81210965599</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="5"/>
+        <v>735.81210965599166</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="6"/>
+        <v>541419.46071640111</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="7"/>
+        <v>541419.46071640111</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="8"/>
+        <v>2151846544</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
         <v>10.5</v>
       </c>
@@ -3474,9 +4092,28 @@
         <f t="shared" si="3"/>
         <v>26.901511111111109</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f t="shared" si="4"/>
+        <v>125016.80457394701</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="5"/>
+        <v>3144.8045739470108</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="6"/>
+        <v>9889795.8083180394</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="7"/>
+        <v>9889795.8083180394</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="8"/>
+        <v>2103965161</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -3499,6 +4136,22 @@
         <v>233.55466666666663</v>
       </c>
       <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <f>AVERAGE(I2:I31)</f>
+        <v>4644.2012894435384</v>
+      </c>
+      <c r="J32" s="3">
+        <f>AVERAGE(J2:J31)</f>
+        <v>31270951.722280972</v>
+      </c>
+      <c r="K32" s="3">
+        <f>SUM(K2:K31)</f>
+        <v>938128551.66842914</v>
+      </c>
+      <c r="L32" s="3">
+        <f>SUM(L2:L31)</f>
+        <v>21794977852</v>
+      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
@@ -3512,25 +4165,6 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D39" s="1">
-        <v>20</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D40" s="1">
-        <v>10</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
